--- a/data/ENGLISH DA_2_(22-23) МЭО22-12.xlsx
+++ b/data/ENGLISH DA_2_(22-23) МЭО22-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{171DE628-E7A5-4DA5-A129-2A12BD27284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8AEDD517-3DAD-4039-BED0-0A8E3442EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{04BED849-312E-4ADB-B097-1181314F7F35}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="90">
   <si>
     <t>Surname</t>
   </si>
@@ -283,91 +283,13 @@
     <t>Last downloaded from this course</t>
   </si>
   <si>
-    <t>217836@edu.fa.ru</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>1748957187</t>
   </si>
   <si>
-    <t>213447@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213441@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213455@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213450@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213458@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213465@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213319@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>206159@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>216607@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213467@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>216870@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>218507@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213463@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>218586@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>218079@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>100DOT19SL219001@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213451@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213425@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213468@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>218081@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213443@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213420@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>214354@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>216793@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213421@edu.fa.ru</t>
-  </si>
-  <si>
-    <t>213406@edu.fa.ru</t>
+    <t>100DOT19SL219001</t>
   </si>
 </sst>
 </file>
@@ -770,7 +692,7 @@
   <dimension ref="A1:CN28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1057,8 +979,8 @@
       </c>
     </row>
     <row r="2" spans="1:92">
-      <c r="E2" t="s">
-        <v>87</v>
+      <c r="E2">
+        <v>217836</v>
       </c>
       <c r="F2">
         <v>117.17</v>
@@ -1067,97 +989,97 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS2">
         <v>0.25</v>
@@ -1202,7 +1124,7 @@
         <v>0.25</v>
       </c>
       <c r="BG2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH2">
         <v>0.25</v>
@@ -1214,7 +1136,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="BK2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL2">
         <v>0.24</v>
@@ -1271,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="CD2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -1286,275 +1208,275 @@
         <v>0.92</v>
       </c>
       <c r="CI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN2" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:92">
-      <c r="E3" t="s">
-        <v>90</v>
+      <c r="E3">
+        <v>213447</v>
       </c>
       <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN3" t="s">
         <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:92">
-      <c r="E4" t="s">
-        <v>91</v>
+      <c r="E4">
+        <v>213441</v>
       </c>
       <c r="F4">
         <v>121.26</v>
@@ -1563,70 +1485,70 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4">
         <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH4">
         <v>0.33</v>
       </c>
       <c r="AI4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ4">
         <v>0.5</v>
@@ -1635,16 +1557,16 @@
         <v>0.5</v>
       </c>
       <c r="AL4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM4">
         <v>0.5</v>
       </c>
       <c r="AN4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP4">
         <v>0.5</v>
@@ -1662,13 +1584,13 @@
         <v>0.25</v>
       </c>
       <c r="AU4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV4">
         <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX4">
         <v>0.25</v>
@@ -1698,25 +1620,25 @@
         <v>0.25</v>
       </c>
       <c r="BG4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH4">
         <v>0.25</v>
       </c>
       <c r="BI4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ4">
         <v>0.47</v>
       </c>
       <c r="BK4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN4">
         <v>0.3</v>
@@ -1782,27 +1704,27 @@
         <v>0.92</v>
       </c>
       <c r="CI4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN4" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:92">
-      <c r="E5" t="s">
-        <v>92</v>
+      <c r="E5">
+        <v>213455</v>
       </c>
       <c r="F5">
         <v>36.9</v>
@@ -1811,67 +1733,67 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI5">
         <v>0.33</v>
@@ -1883,25 +1805,25 @@
         <v>0.33</v>
       </c>
       <c r="AL5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM5">
         <v>0.5</v>
       </c>
       <c r="AN5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP5">
         <v>0.5</v>
       </c>
       <c r="AQ5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -1913,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="AV5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -1925,19 +1847,19 @@
         <v>1</v>
       </c>
       <c r="AZ5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA5">
         <v>0.3</v>
       </c>
       <c r="BB5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BE5">
         <v>0.02</v>
@@ -1946,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="BG5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH5">
         <v>0.25</v>
@@ -1955,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="BJ5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BK5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN5">
         <v>0.3</v>
@@ -1997,13 +1919,13 @@
         <v>0.25</v>
       </c>
       <c r="BX5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BY5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BZ5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CA5">
         <v>1</v>
@@ -2021,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CG5">
         <v>0.43</v>
@@ -2030,27 +1952,27 @@
         <v>0.92</v>
       </c>
       <c r="CI5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN5" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:92">
-      <c r="E6" t="s">
-        <v>93</v>
+      <c r="E6">
+        <v>213450</v>
       </c>
       <c r="F6">
         <v>45.04</v>
@@ -2059,142 +1981,142 @@
         <v>4.63</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6">
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS6">
         <v>0.25</v>
       </c>
       <c r="AT6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU6">
         <v>1</v>
       </c>
       <c r="AV6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY6">
         <v>0.88</v>
       </c>
       <c r="AZ6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BB6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BE6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF6">
         <v>0.25</v>
       </c>
       <c r="BG6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH6">
         <v>0.19</v>
@@ -2203,16 +2125,16 @@
         <v>0.25</v>
       </c>
       <c r="BJ6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BK6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN6">
         <v>0.3</v>
@@ -2221,13 +2143,13 @@
         <v>0.25</v>
       </c>
       <c r="BP6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BQ6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BR6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BS6">
         <v>0.05</v>
@@ -2248,57 +2170,57 @@
         <v>0.25</v>
       </c>
       <c r="BY6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN6" t="s">
         <v>88</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA6">
-        <v>1</v>
-      </c>
-      <c r="CB6">
-        <v>1</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:92">
-      <c r="E7" t="s">
-        <v>94</v>
+      <c r="E7">
+        <v>213458</v>
       </c>
       <c r="F7">
         <v>104.84</v>
@@ -2307,10 +2229,10 @@
         <v>1.67</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>28</v>
@@ -2325,82 +2247,82 @@
         <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI7">
         <v>0.17</v>
       </c>
       <c r="AJ7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AQ7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR7">
         <v>0.2</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2424,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BB7">
         <v>1</v>
@@ -2442,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="BG7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH7">
         <v>0</v>
@@ -2454,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="BK7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN7">
         <v>0.3</v>
@@ -2499,7 +2421,7 @@
         <v>0.4</v>
       </c>
       <c r="BZ7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -2511,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -2526,123 +2448,123 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="CI7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN7" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:92">
-      <c r="E8" t="s">
-        <v>95</v>
+      <c r="E8">
+        <v>213465</v>
       </c>
       <c r="F8">
         <v>10.95</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR8">
         <v>0.14000000000000001</v>
@@ -2660,7 +2582,7 @@
         <v>0.1</v>
       </c>
       <c r="AW8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -2672,88 +2594,88 @@
         <v>1</v>
       </c>
       <c r="BA8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BB8">
         <v>0</v>
       </c>
       <c r="BC8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD8">
         <v>1</v>
       </c>
       <c r="BE8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BG8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BI8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ8">
         <v>0.11</v>
       </c>
       <c r="BK8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BO8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BP8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BQ8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BR8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BS8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BT8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BV8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BW8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BX8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BY8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BZ8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CA8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CB8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CC8">
         <v>1</v>
@@ -2765,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="CF8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CG8">
         <v>1</v>
@@ -2774,523 +2696,523 @@
         <v>0.92</v>
       </c>
       <c r="CI8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN8" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:92">
-      <c r="E9" t="s">
-        <v>96</v>
+      <c r="E9">
+        <v>213319</v>
       </c>
       <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN9" t="s">
         <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>88</v>
-      </c>
-      <c r="R9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W9" t="s">
-        <v>88</v>
-      </c>
-      <c r="X9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:92">
-      <c r="E10" t="s">
-        <v>97</v>
+      <c r="E10">
+        <v>206159</v>
       </c>
       <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN10" t="s">
         <v>88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" t="s">
-        <v>88</v>
-      </c>
-      <c r="V10" t="s">
-        <v>88</v>
-      </c>
-      <c r="W10" t="s">
-        <v>88</v>
-      </c>
-      <c r="X10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:92">
-      <c r="E11" t="s">
-        <v>98</v>
+      <c r="E11">
+        <v>216607</v>
       </c>
       <c r="F11">
         <v>141.93</v>
@@ -3299,94 +3221,94 @@
         <v>4.88</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11">
         <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ11">
         <v>0.5</v>
       </c>
       <c r="AK11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR11">
         <v>0.25</v>
@@ -3518,27 +3440,27 @@
         <v>0.92</v>
       </c>
       <c r="CI11" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN11" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:92">
-      <c r="E12" t="s">
-        <v>99</v>
+      <c r="E12">
+        <v>213467</v>
       </c>
       <c r="F12">
         <v>98.31</v>
@@ -3553,82 +3475,82 @@
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12">
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK12">
         <v>0.5</v>
       </c>
       <c r="AL12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP12">
         <v>0.5</v>
@@ -3670,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BC12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD12">
         <v>1</v>
@@ -3682,25 +3604,25 @@
         <v>0.25</v>
       </c>
       <c r="BG12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH12">
         <v>0.25</v>
       </c>
       <c r="BI12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ12">
         <v>0.21</v>
       </c>
       <c r="BK12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN12">
         <v>0.3</v>
@@ -3766,27 +3688,27 @@
         <v>0.92</v>
       </c>
       <c r="CI12" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN12" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:92">
-      <c r="E13" t="s">
-        <v>100</v>
+      <c r="E13">
+        <v>216870</v>
       </c>
       <c r="F13">
         <v>109.95</v>
@@ -3795,94 +3717,94 @@
         <v>3.63</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR13">
         <v>0.25</v>
@@ -3906,19 +3828,19 @@
         <v>0.24</v>
       </c>
       <c r="AY13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA13">
         <v>0.3</v>
       </c>
       <c r="BB13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD13">
         <v>1</v>
@@ -3930,19 +3852,19 @@
         <v>0.2</v>
       </c>
       <c r="BG13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BI13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ13">
         <v>0</v>
       </c>
       <c r="BK13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL13">
         <v>0.3</v>
@@ -3978,63 +3900,63 @@
         <v>0.25</v>
       </c>
       <c r="BW13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX13">
+        <v>0.25</v>
+      </c>
+      <c r="BY13">
+        <v>1</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>1</v>
+      </c>
+      <c r="CE13">
+        <v>1</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG13">
+        <v>1</v>
+      </c>
+      <c r="CH13">
+        <v>1</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN13" t="s">
         <v>88</v>
-      </c>
-      <c r="BX13">
-        <v>0.25</v>
-      </c>
-      <c r="BY13">
-        <v>1</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13">
-        <v>1</v>
-      </c>
-      <c r="CE13">
-        <v>1</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG13">
-        <v>1</v>
-      </c>
-      <c r="CH13">
-        <v>1</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:92">
-      <c r="E14" t="s">
-        <v>101</v>
+      <c r="E14">
+        <v>218507</v>
       </c>
       <c r="F14">
         <v>56.49</v>
@@ -4046,67 +3968,67 @@
         <v>1.4</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14">
         <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ14">
         <v>0.5</v>
@@ -4115,16 +4037,16 @@
         <v>0.5</v>
       </c>
       <c r="AL14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM14">
         <v>0.5</v>
       </c>
       <c r="AN14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP14">
         <v>0.5</v>
@@ -4166,7 +4088,7 @@
         <v>0.5</v>
       </c>
       <c r="BC14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD14">
         <v>0.5</v>
@@ -4178,7 +4100,7 @@
         <v>0.15</v>
       </c>
       <c r="BG14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH14">
         <v>0.25</v>
@@ -4190,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="BK14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN14">
         <v>0.3</v>
@@ -4262,39 +4184,39 @@
         <v>0.92</v>
       </c>
       <c r="CI14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN14" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK14" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:92">
-      <c r="E15" t="s">
-        <v>102</v>
+      <c r="E15">
+        <v>213463</v>
       </c>
       <c r="F15">
         <v>75.06</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15">
         <v>56</v>
@@ -4303,82 +4225,82 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M15">
         <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR15">
         <v>0.25</v>
@@ -4402,7 +4324,7 @@
         <v>0.25</v>
       </c>
       <c r="AY15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ15">
         <v>1</v>
@@ -4426,64 +4348,64 @@
         <v>0.25</v>
       </c>
       <c r="BG15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BI15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ15">
         <v>0.11</v>
       </c>
       <c r="BK15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN15">
         <v>0.3</v>
       </c>
       <c r="BO15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BP15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BQ15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BR15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BS15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BT15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BV15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BW15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BX15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BY15">
         <v>1</v>
       </c>
       <c r="BZ15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CA15">
         <v>1</v>
@@ -4492,16 +4414,16 @@
         <v>1</v>
       </c>
       <c r="CC15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CD15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE15">
         <v>1</v>
       </c>
       <c r="CF15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CG15">
         <v>1</v>
@@ -4510,27 +4432,27 @@
         <v>0.92</v>
       </c>
       <c r="CI15" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN15" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:92">
-      <c r="E16" t="s">
-        <v>103</v>
+      <c r="E16">
+        <v>218586</v>
       </c>
       <c r="F16">
         <v>90.27</v>
@@ -4545,58 +4467,58 @@
         <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16">
         <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -4611,22 +4533,22 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM16">
         <v>0.5</v>
       </c>
       <c r="AN16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP16">
         <v>0.5</v>
       </c>
       <c r="AQ16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR16">
         <v>0.25</v>
@@ -4650,7 +4572,7 @@
         <v>0.25</v>
       </c>
       <c r="AY16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -4686,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="BK16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN16">
         <v>0.3</v>
@@ -4758,523 +4680,523 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="CI16" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN16" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="5:92">
-      <c r="E17" t="s">
-        <v>104</v>
+      <c r="E17">
+        <v>218079</v>
       </c>
       <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" t="s">
+        <v>87</v>
+      </c>
+      <c r="T17" t="s">
+        <v>87</v>
+      </c>
+      <c r="U17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" t="s">
+        <v>87</v>
+      </c>
+      <c r="W17" t="s">
+        <v>87</v>
+      </c>
+      <c r="X17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN17" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" t="s">
-        <v>88</v>
-      </c>
-      <c r="N17" t="s">
-        <v>88</v>
-      </c>
-      <c r="O17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17" t="s">
-        <v>88</v>
-      </c>
-      <c r="S17" t="s">
-        <v>88</v>
-      </c>
-      <c r="T17" t="s">
-        <v>88</v>
-      </c>
-      <c r="U17" t="s">
-        <v>88</v>
-      </c>
-      <c r="V17" t="s">
-        <v>88</v>
-      </c>
-      <c r="W17" t="s">
-        <v>88</v>
-      </c>
-      <c r="X17" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="5:92">
       <c r="E18" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" t="s">
+        <v>87</v>
+      </c>
+      <c r="T18" t="s">
+        <v>87</v>
+      </c>
+      <c r="U18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" t="s">
+        <v>87</v>
+      </c>
+      <c r="W18" t="s">
+        <v>87</v>
+      </c>
+      <c r="X18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN18" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N18" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>88</v>
-      </c>
-      <c r="R18" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18" t="s">
-        <v>88</v>
-      </c>
-      <c r="T18" t="s">
-        <v>88</v>
-      </c>
-      <c r="U18" t="s">
-        <v>88</v>
-      </c>
-      <c r="V18" t="s">
-        <v>88</v>
-      </c>
-      <c r="W18" t="s">
-        <v>88</v>
-      </c>
-      <c r="X18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CF18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="5:92">
-      <c r="E19" t="s">
-        <v>106</v>
+      <c r="E19">
+        <v>213451</v>
       </c>
       <c r="F19">
         <v>170.51</v>
@@ -5283,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I19">
         <v>56</v>
@@ -5295,58 +5217,58 @@
         <v>60</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ19">
         <v>0.5</v>
@@ -5358,13 +5280,13 @@
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP19">
         <v>0.5</v>
@@ -5427,16 +5349,16 @@
         <v>0.13</v>
       </c>
       <c r="BJ19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BK19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN19">
         <v>0.3</v>
@@ -5502,27 +5424,27 @@
         <v>0.63</v>
       </c>
       <c r="CI19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN19" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ19" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK19" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL19" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="5:92">
-      <c r="E20" t="s">
-        <v>107</v>
+      <c r="E20">
+        <v>213425</v>
       </c>
       <c r="F20">
         <v>92.71</v>
@@ -5531,97 +5453,97 @@
         <v>3.63</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I20">
         <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20">
         <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS20">
         <v>0.25</v>
@@ -5630,7 +5552,7 @@
         <v>0.09</v>
       </c>
       <c r="AU20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV20">
         <v>0</v>
@@ -5660,13 +5582,13 @@
         <v>0</v>
       </c>
       <c r="BE20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF20">
         <v>0.04</v>
       </c>
       <c r="BG20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH20">
         <v>0.2</v>
@@ -5678,13 +5600,13 @@
         <v>0.19</v>
       </c>
       <c r="BK20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN20">
         <v>0.3</v>
@@ -5750,27 +5672,27 @@
         <v>0.45</v>
       </c>
       <c r="CI20" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN20" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ20" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK20" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL20" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="5:92">
-      <c r="E21" t="s">
-        <v>108</v>
+      <c r="E21">
+        <v>213468</v>
       </c>
       <c r="F21">
         <v>75.849999999999994</v>
@@ -5785,58 +5707,58 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21">
         <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21">
         <v>0.33</v>
@@ -5851,22 +5773,22 @@
         <v>0.5</v>
       </c>
       <c r="AL21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP21">
         <v>0.5</v>
       </c>
       <c r="AQ21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR21">
         <v>0.25</v>
@@ -5914,25 +5836,25 @@
         <v>0.25</v>
       </c>
       <c r="BG21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH21">
         <v>0.25</v>
       </c>
       <c r="BI21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ21">
         <v>0.68</v>
       </c>
       <c r="BK21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN21">
         <v>0.3</v>
@@ -5962,7 +5884,7 @@
         <v>0.25</v>
       </c>
       <c r="BW21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BX21">
         <v>0.25</v>
@@ -5980,10 +5902,10 @@
         <v>1</v>
       </c>
       <c r="CC21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CD21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE21">
         <v>1</v>
@@ -5998,27 +5920,27 @@
         <v>0.92</v>
       </c>
       <c r="CI21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN21" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK21" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN21" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="5:92">
-      <c r="E22" t="s">
-        <v>109</v>
+      <c r="E22">
+        <v>218081</v>
       </c>
       <c r="F22">
         <v>57.23</v>
@@ -6030,10 +5952,10 @@
         <v>1.8</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22">
         <v>22</v>
@@ -6042,52 +5964,52 @@
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -6096,25 +6018,25 @@
         <v>0.5</v>
       </c>
       <c r="AK22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM22">
         <v>0.5</v>
       </c>
       <c r="AN22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP22">
         <v>0.5</v>
       </c>
       <c r="AQ22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR22">
         <v>0.25</v>
@@ -6138,7 +6060,7 @@
         <v>0.17</v>
       </c>
       <c r="AY22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -6162,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="BG22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH22">
         <v>0</v>
@@ -6177,10 +6099,10 @@
         <v>0</v>
       </c>
       <c r="BL22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN22">
         <v>0.18</v>
@@ -6231,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="CD22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE22">
         <v>0</v>
@@ -6246,27 +6168,27 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="CI22" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN22" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ22" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK22" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL22" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM22" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN22" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="5:92">
-      <c r="E23" t="s">
-        <v>110</v>
+      <c r="E23">
+        <v>213443</v>
       </c>
       <c r="F23">
         <v>87.96</v>
@@ -6281,97 +6203,97 @@
         <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23">
         <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP23">
         <v>0.33</v>
       </c>
       <c r="AQ23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU23">
         <v>1</v>
@@ -6383,58 +6305,58 @@
         <v>0.2</v>
       </c>
       <c r="AX23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BB23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD23">
         <v>0</v>
       </c>
       <c r="BE23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BG23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH23">
         <v>0.25</v>
       </c>
       <c r="BI23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ23">
         <v>0</v>
       </c>
       <c r="BK23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BO23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BP23">
         <v>0.25</v>
@@ -6461,10 +6383,10 @@
         <v>0.25</v>
       </c>
       <c r="BX23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BY23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BZ23">
         <v>0.2</v>
@@ -6476,10 +6398,10 @@
         <v>1</v>
       </c>
       <c r="CC23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CD23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE23">
         <v>0.5</v>
@@ -6494,27 +6416,27 @@
         <v>0.73</v>
       </c>
       <c r="CI23" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN23" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ23" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK23" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL23" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM23" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN23" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="5:92">
-      <c r="E24" t="s">
-        <v>111</v>
+      <c r="E24">
+        <v>213420</v>
       </c>
       <c r="F24">
         <v>115.22</v>
@@ -6529,61 +6451,61 @@
         <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24">
         <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI24">
         <v>0.17</v>
@@ -6595,22 +6517,22 @@
         <v>0.5</v>
       </c>
       <c r="AL24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM24">
         <v>0.5</v>
       </c>
       <c r="AN24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP24">
         <v>0.5</v>
       </c>
       <c r="AQ24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR24">
         <v>0.18</v>
@@ -6619,7 +6541,7 @@
         <v>0.25</v>
       </c>
       <c r="AT24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU24">
         <v>1</v>
@@ -6664,19 +6586,19 @@
         <v>0.15</v>
       </c>
       <c r="BI24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ24">
         <v>0</v>
       </c>
       <c r="BK24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN24">
         <v>0.3</v>
@@ -6742,275 +6664,275 @@
         <v>0.92</v>
       </c>
       <c r="CI24" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN24" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ24" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK24" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL24" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM24" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="5:92">
-      <c r="E25" t="s">
-        <v>112</v>
+      <c r="E25">
+        <v>214354</v>
       </c>
       <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>87</v>
+      </c>
+      <c r="R25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S25" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25" t="s">
+        <v>87</v>
+      </c>
+      <c r="U25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V25" t="s">
+        <v>87</v>
+      </c>
+      <c r="W25" t="s">
+        <v>87</v>
+      </c>
+      <c r="X25" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN25" t="s">
         <v>88</v>
-      </c>
-      <c r="G25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" t="s">
-        <v>88</v>
-      </c>
-      <c r="N25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" t="s">
-        <v>88</v>
-      </c>
-      <c r="P25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>88</v>
-      </c>
-      <c r="R25" t="s">
-        <v>88</v>
-      </c>
-      <c r="S25" t="s">
-        <v>88</v>
-      </c>
-      <c r="T25" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25" t="s">
-        <v>88</v>
-      </c>
-      <c r="V25" t="s">
-        <v>88</v>
-      </c>
-      <c r="W25" t="s">
-        <v>88</v>
-      </c>
-      <c r="X25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BY25" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CF25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM25" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="5:92">
-      <c r="E26" t="s">
-        <v>113</v>
+      <c r="E26">
+        <v>216793</v>
       </c>
       <c r="F26">
         <v>120.09</v>
@@ -7019,7 +6941,7 @@
         <v>1.65</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -7037,49 +6959,49 @@
         <v>47</v>
       </c>
       <c r="N26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI26">
         <v>0.33</v>
@@ -7091,31 +7013,31 @@
         <v>0.33</v>
       </c>
       <c r="AL26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP26">
         <v>0</v>
       </c>
       <c r="AQ26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU26">
         <v>1</v>
@@ -7127,58 +7049,58 @@
         <v>0</v>
       </c>
       <c r="AX26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY26">
         <v>1</v>
       </c>
       <c r="AZ26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BB26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BE26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BG26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH26">
         <v>0.25</v>
       </c>
       <c r="BI26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BK26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BO26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BP26">
         <v>0.25</v>
@@ -7205,13 +7127,13 @@
         <v>0.25</v>
       </c>
       <c r="BX26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BY26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BZ26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CA26">
         <v>1</v>
@@ -7229,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="CF26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CG26">
         <v>0.91</v>
@@ -7238,27 +7160,27 @@
         <v>0.92</v>
       </c>
       <c r="CI26" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN26" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ26" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK26" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL26" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM26" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="5:92">
-      <c r="E27" t="s">
-        <v>114</v>
+      <c r="E27">
+        <v>213421</v>
       </c>
       <c r="F27">
         <v>141.13999999999999</v>
@@ -7273,61 +7195,61 @@
         <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K27">
         <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI27">
         <v>0.33</v>
@@ -7339,22 +7261,22 @@
         <v>0.5</v>
       </c>
       <c r="AL27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM27">
         <v>0.5</v>
       </c>
       <c r="AN27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP27">
         <v>0.5</v>
       </c>
       <c r="AQ27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR27">
         <v>0.25</v>
@@ -7408,19 +7330,19 @@
         <v>0.25</v>
       </c>
       <c r="BI27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ27">
         <v>0</v>
       </c>
       <c r="BK27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN27">
         <v>0.3</v>
@@ -7486,27 +7408,27 @@
         <v>0.82</v>
       </c>
       <c r="CI27" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN27" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ27" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK27" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL27" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM27" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="5:92">
-      <c r="E28" t="s">
-        <v>115</v>
+      <c r="E28">
+        <v>213406</v>
       </c>
       <c r="F28">
         <v>138.62</v>
@@ -7515,64 +7437,64 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28">
         <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28">
         <v>60</v>
       </c>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH28">
         <v>0.5</v>
@@ -7587,22 +7509,22 @@
         <v>0.5</v>
       </c>
       <c r="AL28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM28">
         <v>0.5</v>
       </c>
       <c r="AN28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP28">
         <v>0.5</v>
       </c>
       <c r="AQ28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR28">
         <v>0.25</v>
@@ -7662,13 +7584,13 @@
         <v>0.09</v>
       </c>
       <c r="BK28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BN28">
         <v>0.3</v>
@@ -7734,22 +7656,22 @@
         <v>0.92</v>
       </c>
       <c r="CI28" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK28" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN28" t="s">
         <v>88</v>
-      </c>
-      <c r="CJ28" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK28" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL28" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM28" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN28" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/ENGLISH DA_2_(22-23) МЭО22-12.xlsx
+++ b/data/ENGLISH DA_2_(22-23) МЭО22-12.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8AEDD517-3DAD-4039-BED0-0A8E3442EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECD352E-D0D5-4745-A953-93C63F5BBE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{04BED849-312E-4ADB-B097-1181314F7F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="89">
   <si>
     <t>Surname</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>ID number</t>
-  </si>
-  <si>
-    <t>Email address</t>
   </si>
   <si>
     <t>Course total (Real)</t>
@@ -689,18 +686,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF8193A-4792-4AE5-9026-975077B90BD7}">
-  <dimension ref="A1:CN28"/>
+  <dimension ref="A1:CM28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="19.9375" customWidth="1"/>
+    <col min="4" max="4" width="19.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92">
+    <row r="1" spans="1:91">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,13 +765,13 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="X1" t="s">
         <v>8</v>
       </c>
       <c r="Y1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Z1" t="s">
         <v>23</v>
@@ -894,10 +891,10 @@
         <v>61</v>
       </c>
       <c r="BM1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN1" t="s">
         <v>62</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>61</v>
       </c>
       <c r="BO1" t="s">
         <v>63</v>
@@ -951,10 +948,10 @@
         <v>79</v>
       </c>
       <c r="CF1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CG1" t="s">
         <v>80</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>59</v>
       </c>
       <c r="CH1" t="s">
         <v>81</v>
@@ -966,7 +963,7 @@
         <v>83</v>
       </c>
       <c r="CK1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CL1" t="s">
         <v>84</v>
@@ -974,178 +971,178 @@
       <c r="CM1" t="s">
         <v>85</v>
       </c>
-      <c r="CN1" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="2" spans="1:92">
+    <row r="2" spans="1:91">
+      <c r="D2">
+        <v>217836</v>
+      </c>
       <c r="E2">
-        <v>217836</v>
+        <v>117.17</v>
       </c>
       <c r="F2">
-        <v>117.17</v>
-      </c>
-      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2">
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2">
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2">
         <v>40</v>
       </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>86</v>
       </c>
       <c r="AH2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AR2">
+        <v>0.25</v>
       </c>
       <c r="AS2">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="AT2">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AX2">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="AY2">
         <v>1</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
         <v>0.3</v>
       </c>
-      <c r="BB2">
-        <v>1</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
       <c r="BE2">
-        <v>0.3</v>
-      </c>
-      <c r="BF2">
-        <v>0.25</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>87</v>
+        <v>0.25</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2">
+        <v>0.25</v>
       </c>
       <c r="BH2">
         <v>0.25</v>
       </c>
       <c r="BI2">
-        <v>0.25</v>
-      </c>
-      <c r="BJ2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="BK2" t="s">
-        <v>87</v>
+      <c r="BJ2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK2">
+        <v>0.24</v>
       </c>
       <c r="BL2">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="BM2">
         <v>0.27</v>
       </c>
       <c r="BN2">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="BO2">
         <v>0.25</v>
@@ -1175,7 +1172,7 @@
         <v>0.25</v>
       </c>
       <c r="BX2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BY2">
         <v>1</v>
@@ -1184,464 +1181,464 @@
         <v>1</v>
       </c>
       <c r="CA2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="CB2">
-        <v>0.8</v>
-      </c>
-      <c r="CC2">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF2">
         <v>1</v>
       </c>
       <c r="CG2">
-        <v>1</v>
-      </c>
-      <c r="CH2">
         <v>0.92</v>
       </c>
+      <c r="CH2" t="s">
+        <v>86</v>
+      </c>
       <c r="CI2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM2" t="s">
         <v>87</v>
       </c>
-      <c r="CN2" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="3" spans="1:92">
-      <c r="E3">
+    <row r="3" spans="1:91">
+      <c r="D3">
         <v>213447</v>
       </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>86</v>
       </c>
       <c r="AH3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BD3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BE3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BI3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BJ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BO3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BP3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BS3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BV3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BW3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BX3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BZ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CA3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CB3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CC3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CD3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CE3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CF3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CG3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CH3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CI3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM3" t="s">
         <v>87</v>
       </c>
-      <c r="CN3" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="4" spans="1:92">
+    <row r="4" spans="1:91">
+      <c r="D4">
+        <v>213441</v>
+      </c>
       <c r="E4">
-        <v>213441</v>
+        <v>121.26</v>
       </c>
       <c r="F4">
-        <v>121.26</v>
-      </c>
-      <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4">
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4">
         <v>50</v>
       </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4">
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4">
         <v>46</v>
       </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH4">
+        <v>86</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4">
         <v>0.33</v>
       </c>
-      <c r="AI4" t="s">
-        <v>87</v>
+      <c r="AH4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4">
+        <v>0.5</v>
       </c>
       <c r="AJ4">
         <v>0.5</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4">
         <v>0.5</v>
       </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM4">
+      <c r="AM4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO4">
         <v>0.5</v>
       </c>
-      <c r="AN4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>87</v>
-      </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AS4">
         <v>0.25</v>
       </c>
-      <c r="AT4">
-        <v>0.25</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>87</v>
+      <c r="AT4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW4">
+        <v>0.25</v>
       </c>
       <c r="AX4">
-        <v>0.25</v>
+        <v>0.69</v>
       </c>
       <c r="AY4">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
         <v>0.3</v>
       </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
       <c r="BE4">
+        <v>0.25</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG4">
+        <v>0.25</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI4">
+        <v>0.47</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM4">
         <v>0.3</v>
       </c>
-      <c r="BF4">
-        <v>0.25</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH4">
-        <v>0.25</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ4">
-        <v>0.47</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>87</v>
-      </c>
       <c r="BN4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="BO4">
         <v>0.25</v>
@@ -1671,7 +1668,7 @@
         <v>0.25</v>
       </c>
       <c r="BX4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BY4">
         <v>1</v>
@@ -1698,198 +1695,198 @@
         <v>1</v>
       </c>
       <c r="CG4">
-        <v>1</v>
-      </c>
-      <c r="CH4">
         <v>0.92</v>
       </c>
+      <c r="CH4" t="s">
+        <v>86</v>
+      </c>
       <c r="CI4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM4" t="s">
         <v>87</v>
       </c>
-      <c r="CN4" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="5" spans="1:92">
+    <row r="5" spans="1:91">
+      <c r="D5">
+        <v>213455</v>
+      </c>
       <c r="E5">
-        <v>213455</v>
+        <v>36.9</v>
       </c>
       <c r="F5">
-        <v>36.9</v>
-      </c>
-      <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5">
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5">
         <v>20</v>
       </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH5">
+        <v>0.33</v>
       </c>
       <c r="AI5">
+        <v>0.5</v>
+      </c>
+      <c r="AJ5">
         <v>0.33</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5">
         <v>0.5</v>
       </c>
-      <c r="AK5">
-        <v>0.33</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM5">
+      <c r="AM5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5">
         <v>0.5</v>
       </c>
-      <c r="AN5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP5">
-        <v>0.5</v>
+      <c r="AP5" t="s">
+        <v>86</v>
       </c>
       <c r="AQ5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AT5">
-        <v>0.06</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AX5">
-        <v>0.2</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ5">
         <v>0.3</v>
       </c>
+      <c r="BA5" t="s">
+        <v>86</v>
+      </c>
       <c r="BB5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BD5">
+        <v>0.02</v>
       </c>
       <c r="BE5">
-        <v>0.02</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG5">
+        <v>0.25</v>
       </c>
       <c r="BH5">
-        <v>0.25</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>86</v>
       </c>
       <c r="BJ5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BM5">
+        <v>0.3</v>
       </c>
       <c r="BN5">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="BO5">
         <v>0.25</v>
@@ -1915,244 +1912,244 @@
       <c r="BV5">
         <v>0.25</v>
       </c>
-      <c r="BW5">
-        <v>0.25</v>
+      <c r="BW5" t="s">
+        <v>86</v>
       </c>
       <c r="BX5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
       </c>
       <c r="CA5">
         <v>1</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD5">
-        <v>1</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF5">
+        <v>0.43</v>
       </c>
       <c r="CG5">
-        <v>0.43</v>
-      </c>
-      <c r="CH5">
         <v>0.92</v>
       </c>
+      <c r="CH5" t="s">
+        <v>86</v>
+      </c>
       <c r="CI5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM5" t="s">
         <v>87</v>
       </c>
-      <c r="CN5" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="6" spans="1:92">
+    <row r="6" spans="1:91">
+      <c r="D6">
+        <v>213450</v>
+      </c>
       <c r="E6">
-        <v>213450</v>
+        <v>45.04</v>
       </c>
       <c r="F6">
-        <v>45.04</v>
-      </c>
-      <c r="G6">
         <v>4.63</v>
       </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6">
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6">
         <v>34</v>
       </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>86</v>
       </c>
       <c r="AH6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS6">
-        <v>0.25</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY6">
+        <v>86</v>
+      </c>
+      <c r="AR6">
+        <v>0.25</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX6">
         <v>0.88</v>
       </c>
+      <c r="AY6" t="s">
+        <v>86</v>
+      </c>
       <c r="AZ6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BD6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BF6">
-        <v>0.25</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BE6">
+        <v>0.25</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG6">
+        <v>0.19</v>
       </c>
       <c r="BH6">
-        <v>0.19</v>
-      </c>
-      <c r="BI6">
-        <v>0.25</v>
+        <v>0.25</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>86</v>
       </c>
       <c r="BJ6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BM6">
+        <v>0.3</v>
       </c>
       <c r="BN6">
-        <v>0.3</v>
-      </c>
-      <c r="BO6">
-        <v>0.25</v>
+        <v>0.25</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>86</v>
       </c>
       <c r="BP6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BR6">
+        <v>0.05</v>
       </c>
       <c r="BS6">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="BT6">
         <v>0.25</v>
@@ -2161,521 +2158,521 @@
         <v>0.25</v>
       </c>
       <c r="BV6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0.25</v>
+        <v>0.25</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>86</v>
       </c>
       <c r="BY6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
       </c>
       <c r="CA6">
         <v>1</v>
       </c>
-      <c r="CB6">
-        <v>1</v>
+      <c r="CB6" t="s">
+        <v>86</v>
       </c>
       <c r="CC6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CD6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CE6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CF6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CG6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CH6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CI6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM6" t="s">
         <v>87</v>
       </c>
-      <c r="CN6" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="7" spans="1:92">
+    <row r="7" spans="1:91">
+      <c r="D7">
+        <v>213458</v>
+      </c>
       <c r="E7">
-        <v>213458</v>
+        <v>104.84</v>
       </c>
       <c r="F7">
-        <v>104.84</v>
-      </c>
-      <c r="G7">
         <v>1.67</v>
       </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
       <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
       </c>
       <c r="J7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L7">
-        <v>16</v>
-      </c>
-      <c r="M7">
         <v>36</v>
       </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI7">
+        <v>86</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH7">
         <v>0.17</v>
       </c>
+      <c r="AI7" t="s">
+        <v>86</v>
+      </c>
       <c r="AJ7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR7">
+        <v>86</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ7">
         <v>0.2</v>
       </c>
-      <c r="AS7" t="s">
-        <v>87</v>
+      <c r="AR7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0.94</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>0.31</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM7">
+        <v>0.3</v>
+      </c>
+      <c r="BN7">
+        <v>0.25</v>
+      </c>
+      <c r="BO7">
+        <v>0.25</v>
+      </c>
+      <c r="BP7">
+        <v>0.25</v>
+      </c>
+      <c r="BQ7">
+        <v>0.25</v>
+      </c>
+      <c r="BR7">
+        <v>0.25</v>
+      </c>
+      <c r="BS7">
+        <v>0.25</v>
+      </c>
+      <c r="BT7">
+        <v>0.25</v>
+      </c>
+      <c r="BU7">
+        <v>0.25</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0.2</v>
+      </c>
+      <c r="BX7">
         <v>0.4</v>
       </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0.94</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
-        <v>0.31</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN7">
-        <v>0.3</v>
-      </c>
-      <c r="BO7">
-        <v>0.25</v>
-      </c>
-      <c r="BP7">
-        <v>0.25</v>
-      </c>
-      <c r="BQ7">
-        <v>0.25</v>
-      </c>
-      <c r="BR7">
-        <v>0.25</v>
-      </c>
-      <c r="BS7">
-        <v>0.25</v>
-      </c>
-      <c r="BT7">
-        <v>0.25</v>
-      </c>
-      <c r="BU7">
-        <v>0.25</v>
-      </c>
-      <c r="BV7">
-        <v>0.25</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0.2</v>
-      </c>
-      <c r="BY7">
-        <v>0.4</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>87</v>
+      <c r="BY7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
       </c>
       <c r="CA7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CB7">
-        <v>0.8</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF7">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="CG7">
-        <v>0.91</v>
-      </c>
-      <c r="CH7">
         <v>0.55000000000000004</v>
       </c>
+      <c r="CH7" t="s">
+        <v>86</v>
+      </c>
       <c r="CI7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM7" t="s">
         <v>87</v>
       </c>
-      <c r="CN7" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="8" spans="1:92">
+    <row r="8" spans="1:91">
+      <c r="D8">
+        <v>213465</v>
+      </c>
       <c r="E8">
-        <v>213465</v>
-      </c>
-      <c r="F8">
         <v>10.95</v>
       </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8">
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
       <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>86</v>
       </c>
       <c r="AH8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AQ8">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AR8">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AV8">
         <v>0.1</v>
       </c>
-      <c r="AW8" t="s">
-        <v>87</v>
+      <c r="AV8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="AY8">
-        <v>0.69</v>
-      </c>
-      <c r="AZ8">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>86</v>
       </c>
       <c r="BE8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ8">
+        <v>86</v>
+      </c>
+      <c r="BI8">
         <v>0.11</v>
       </c>
+      <c r="BJ8" t="s">
+        <v>86</v>
+      </c>
       <c r="BK8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BO8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BP8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BS8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BV8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BW8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BX8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BZ8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CA8" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="CB8">
+        <v>1</v>
       </c>
       <c r="CC8">
         <v>1</v>
@@ -2683,632 +2680,632 @@
       <c r="CD8">
         <v>1</v>
       </c>
-      <c r="CE8">
-        <v>1</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>87</v>
+      <c r="CE8" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF8">
+        <v>1</v>
       </c>
       <c r="CG8">
-        <v>1</v>
-      </c>
-      <c r="CH8">
         <v>0.92</v>
       </c>
+      <c r="CH8" t="s">
+        <v>86</v>
+      </c>
       <c r="CI8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM8" t="s">
         <v>87</v>
       </c>
-      <c r="CN8" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="9" spans="1:92">
-      <c r="E9">
+    <row r="9" spans="1:91">
+      <c r="D9">
         <v>213319</v>
       </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>86</v>
       </c>
       <c r="AH9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BD9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BE9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BI9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BJ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BO9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BP9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BS9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BV9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BW9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BX9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BZ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CA9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CB9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CC9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CD9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CE9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CF9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CG9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CH9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CI9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM9" t="s">
         <v>87</v>
       </c>
-      <c r="CN9" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="10" spans="1:92">
-      <c r="E10">
+    <row r="10" spans="1:91">
+      <c r="D10">
         <v>206159</v>
       </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>86</v>
       </c>
       <c r="AH10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BD10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BE10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BI10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BJ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BO10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BP10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BS10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BV10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BW10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BX10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BZ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CA10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CB10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CC10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CD10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CE10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CF10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CG10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CH10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CI10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM10" t="s">
         <v>87</v>
       </c>
-      <c r="CN10" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="11" spans="1:92">
+    <row r="11" spans="1:91">
+      <c r="D11">
+        <v>216607</v>
+      </c>
       <c r="E11">
-        <v>216607</v>
+        <v>141.93</v>
       </c>
       <c r="F11">
-        <v>141.93</v>
-      </c>
-      <c r="G11">
         <v>4.88</v>
       </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11">
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11">
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11">
         <v>60</v>
       </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ11">
+        <v>86</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI11">
         <v>0.5</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>86</v>
+      </c>
       <c r="AK11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AQ11">
+        <v>0.25</v>
       </c>
       <c r="AR11">
         <v>0.25</v>
@@ -3317,7 +3314,7 @@
         <v>0.25</v>
       </c>
       <c r="AT11">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>1</v>
@@ -3326,61 +3323,61 @@
         <v>1</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AX11">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AZ11">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
         <v>0.3</v>
       </c>
-      <c r="BB11">
-        <v>1</v>
-      </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-      <c r="BD11">
-        <v>1</v>
-      </c>
       <c r="BE11">
+        <v>0.25</v>
+      </c>
+      <c r="BF11">
+        <v>0.25</v>
+      </c>
+      <c r="BG11">
+        <v>0.25</v>
+      </c>
+      <c r="BH11">
+        <v>0.25</v>
+      </c>
+      <c r="BI11">
         <v>0.3</v>
       </c>
-      <c r="BF11">
-        <v>0.25</v>
-      </c>
-      <c r="BG11">
-        <v>0.25</v>
-      </c>
-      <c r="BH11">
-        <v>0.25</v>
-      </c>
-      <c r="BI11">
-        <v>0.25</v>
-      </c>
       <c r="BJ11">
-        <v>0.3</v>
+        <v>0.92</v>
       </c>
       <c r="BK11">
-        <v>0.92</v>
+        <v>0.27</v>
       </c>
       <c r="BL11">
         <v>0.27</v>
       </c>
       <c r="BM11">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="BN11">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="BO11">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="BP11">
         <v>0.25</v>
@@ -3407,7 +3404,7 @@
         <v>0.25</v>
       </c>
       <c r="BX11">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BY11">
         <v>1</v>
@@ -3416,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="CB11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="CC11">
         <v>1</v>
@@ -3434,129 +3431,129 @@
         <v>1</v>
       </c>
       <c r="CG11">
-        <v>1</v>
-      </c>
-      <c r="CH11">
         <v>0.92</v>
       </c>
+      <c r="CH11" t="s">
+        <v>86</v>
+      </c>
       <c r="CI11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM11" t="s">
         <v>87</v>
       </c>
-      <c r="CN11" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="12" spans="1:92">
+    <row r="12" spans="1:91">
+      <c r="D12">
+        <v>213467</v>
+      </c>
       <c r="E12">
-        <v>213467</v>
+        <v>98.31</v>
       </c>
       <c r="F12">
-        <v>98.31</v>
+        <v>4.37</v>
       </c>
       <c r="G12">
-        <v>4.37</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
         <v>48</v>
       </c>
-      <c r="J12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12">
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12">
         <v>24</v>
       </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>86</v>
       </c>
       <c r="AH12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK12">
+        <v>86</v>
+      </c>
+      <c r="AJ12">
         <v>0.5</v>
       </c>
+      <c r="AK12" t="s">
+        <v>86</v>
+      </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AO12">
+        <v>0.5</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0.25</v>
@@ -3565,97 +3562,97 @@
         <v>0.25</v>
       </c>
       <c r="AT12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AV12">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AW12">
+        <v>0.24</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>0.3</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>0.3</v>
+      </c>
+      <c r="BE12">
+        <v>0.25</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG12">
+        <v>0.25</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI12">
+        <v>0.21</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM12">
+        <v>0.3</v>
+      </c>
+      <c r="BN12">
+        <v>0.23</v>
+      </c>
+      <c r="BO12">
+        <v>0.25</v>
+      </c>
+      <c r="BP12">
+        <v>0.25</v>
+      </c>
+      <c r="BQ12">
+        <v>0.25</v>
+      </c>
+      <c r="BR12">
+        <v>0.25</v>
+      </c>
+      <c r="BS12">
+        <v>0.25</v>
+      </c>
+      <c r="BT12">
+        <v>0.25</v>
+      </c>
+      <c r="BU12">
+        <v>0.25</v>
+      </c>
+      <c r="BV12">
+        <v>0.25</v>
+      </c>
+      <c r="BW12">
         <v>0.2</v>
       </c>
-      <c r="AX12">
-        <v>0.24</v>
-      </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12">
-        <v>1</v>
-      </c>
-      <c r="BA12">
-        <v>0.3</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD12">
-        <v>1</v>
-      </c>
-      <c r="BE12">
-        <v>0.3</v>
-      </c>
-      <c r="BF12">
-        <v>0.25</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH12">
-        <v>0.25</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ12">
-        <v>0.21</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN12">
-        <v>0.3</v>
-      </c>
-      <c r="BO12">
-        <v>0.23</v>
-      </c>
-      <c r="BP12">
-        <v>0.25</v>
-      </c>
-      <c r="BQ12">
-        <v>0.25</v>
-      </c>
-      <c r="BR12">
-        <v>0.25</v>
-      </c>
-      <c r="BS12">
-        <v>0.25</v>
-      </c>
-      <c r="BT12">
-        <v>0.25</v>
-      </c>
-      <c r="BU12">
-        <v>0.25</v>
-      </c>
-      <c r="BV12">
-        <v>0.25</v>
-      </c>
-      <c r="BW12">
-        <v>0.25</v>
-      </c>
       <c r="BX12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="BY12">
         <v>1</v>
@@ -3664,13 +3661,13 @@
         <v>1</v>
       </c>
       <c r="CA12">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="CB12">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="CC12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="CD12">
         <v>1</v>
@@ -3682,129 +3679,129 @@
         <v>1</v>
       </c>
       <c r="CG12">
-        <v>1</v>
-      </c>
-      <c r="CH12">
         <v>0.92</v>
       </c>
+      <c r="CH12" t="s">
+        <v>86</v>
+      </c>
       <c r="CI12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM12" t="s">
         <v>87</v>
       </c>
-      <c r="CN12" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="13" spans="1:92">
+    <row r="13" spans="1:91">
+      <c r="D13">
+        <v>216870</v>
+      </c>
       <c r="E13">
-        <v>216870</v>
+        <v>109.95</v>
       </c>
       <c r="F13">
-        <v>109.95</v>
-      </c>
-      <c r="G13">
         <v>3.63</v>
       </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13">
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13">
         <v>50</v>
       </c>
-      <c r="J13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13">
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13">
         <v>43</v>
       </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>86</v>
       </c>
       <c r="AH13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AQ13">
+        <v>0.25</v>
       </c>
       <c r="AR13">
         <v>0.25</v>
@@ -3813,7 +3810,7 @@
         <v>0.25</v>
       </c>
       <c r="AT13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>1</v>
@@ -3822,306 +3819,306 @@
         <v>1</v>
       </c>
       <c r="AW13">
-        <v>1</v>
-      </c>
-      <c r="AX13">
         <v>0.24</v>
       </c>
+      <c r="AX13" t="s">
+        <v>86</v>
+      </c>
       <c r="AY13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA13">
+        <v>86</v>
+      </c>
+      <c r="AZ13">
         <v>0.3</v>
       </c>
+      <c r="BA13" t="s">
+        <v>86</v>
+      </c>
       <c r="BB13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
       </c>
       <c r="BD13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BE13">
+        <v>0.2</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK13">
         <v>0.3</v>
       </c>
-      <c r="BF13">
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0.3</v>
+      </c>
+      <c r="BN13">
+        <v>0.23</v>
+      </c>
+      <c r="BO13">
+        <v>0.25</v>
+      </c>
+      <c r="BP13">
+        <v>0.25</v>
+      </c>
+      <c r="BQ13">
+        <v>0.25</v>
+      </c>
+      <c r="BR13">
         <v>0.2</v>
       </c>
-      <c r="BG13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL13">
-        <v>0.3</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0.3</v>
-      </c>
-      <c r="BO13">
-        <v>0.23</v>
-      </c>
-      <c r="BP13">
-        <v>0.25</v>
-      </c>
-      <c r="BQ13">
-        <v>0.25</v>
-      </c>
-      <c r="BR13">
-        <v>0.25</v>
-      </c>
       <c r="BS13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="BT13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>0.25</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>87</v>
+        <v>0.25</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW13">
+        <v>0.25</v>
       </c>
       <c r="BX13">
-        <v>0.25</v>
-      </c>
-      <c r="BY13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>86</v>
       </c>
       <c r="BZ13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CA13" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
       </c>
       <c r="CC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD13">
         <v>1</v>
       </c>
-      <c r="CE13">
-        <v>1</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>87</v>
+      <c r="CE13" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF13">
+        <v>1</v>
       </c>
       <c r="CG13">
         <v>1</v>
       </c>
-      <c r="CH13">
-        <v>1</v>
+      <c r="CH13" t="s">
+        <v>86</v>
       </c>
       <c r="CI13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM13" t="s">
         <v>87</v>
       </c>
-      <c r="CN13" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="14" spans="1:92">
+    <row r="14" spans="1:91">
+      <c r="D14">
+        <v>218507</v>
+      </c>
       <c r="E14">
-        <v>218507</v>
+        <v>56.49</v>
       </c>
       <c r="F14">
-        <v>56.49</v>
+        <v>4.72</v>
       </c>
       <c r="G14">
-        <v>4.72</v>
-      </c>
-      <c r="H14">
         <v>1.4</v>
       </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
       <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14">
+        <v>86</v>
+      </c>
+      <c r="J14">
         <v>31</v>
       </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y14" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI14">
+        <v>0.5</v>
       </c>
       <c r="AJ14">
         <v>0.5</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL14">
         <v>0.5</v>
       </c>
-      <c r="AL14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM14">
+      <c r="AM14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO14">
         <v>0.5</v>
       </c>
-      <c r="AN14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>87</v>
-      </c>
       <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0.25</v>
+      </c>
+      <c r="AR14">
+        <v>0.25</v>
+      </c>
+      <c r="AS14">
+        <v>0.13</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>0.1</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0.25</v>
+      </c>
+      <c r="AX14">
+        <v>0.75</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <v>0.3</v>
+      </c>
+      <c r="BA14">
         <v>0.5</v>
       </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0.25</v>
-      </c>
-      <c r="AS14">
-        <v>0.25</v>
-      </c>
-      <c r="AT14">
-        <v>0.13</v>
-      </c>
-      <c r="AU14">
-        <v>1</v>
-      </c>
-      <c r="AV14">
-        <v>0.1</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0.25</v>
-      </c>
-      <c r="AY14">
-        <v>0.75</v>
-      </c>
-      <c r="AZ14">
-        <v>1</v>
-      </c>
-      <c r="BA14">
+      <c r="BB14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC14">
+        <v>0.5</v>
+      </c>
+      <c r="BD14">
         <v>0.3</v>
       </c>
-      <c r="BB14">
-        <v>0.5</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD14">
-        <v>0.5</v>
-      </c>
       <c r="BE14">
+        <v>0.15</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG14">
+        <v>0.25</v>
+      </c>
+      <c r="BH14">
+        <v>0.25</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM14">
         <v>0.3</v>
       </c>
-      <c r="BF14">
-        <v>0.15</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH14">
-        <v>0.25</v>
-      </c>
-      <c r="BI14">
-        <v>0.25</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>87</v>
-      </c>
       <c r="BN14">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="BO14">
         <v>0.25</v>
@@ -4151,156 +4148,156 @@
         <v>0.25</v>
       </c>
       <c r="BX14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BY14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BZ14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="CA14">
         <v>1</v>
       </c>
       <c r="CB14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="CC14">
+        <v>1</v>
+      </c>
+      <c r="CD14">
+        <v>1</v>
+      </c>
+      <c r="CE14">
         <v>0.6</v>
       </c>
-      <c r="CD14">
-        <v>1</v>
-      </c>
-      <c r="CE14">
-        <v>1</v>
-      </c>
       <c r="CF14">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="CG14">
-        <v>0.68</v>
-      </c>
-      <c r="CH14">
         <v>0.92</v>
       </c>
+      <c r="CH14" t="s">
+        <v>86</v>
+      </c>
       <c r="CI14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM14" t="s">
         <v>87</v>
       </c>
-      <c r="CN14" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="15" spans="1:92">
+    <row r="15" spans="1:91">
+      <c r="D15">
+        <v>213463</v>
+      </c>
       <c r="E15">
-        <v>213463</v>
-      </c>
-      <c r="F15">
         <v>75.06</v>
       </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>56</v>
       </c>
       <c r="J15">
-        <v>56</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15">
         <v>9</v>
       </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
       <c r="N15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>86</v>
       </c>
       <c r="AH15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AQ15">
+        <v>0.25</v>
       </c>
       <c r="AR15">
         <v>0.25</v>
@@ -4309,351 +4306,351 @@
         <v>0.25</v>
       </c>
       <c r="AT15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AV15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AW15">
-        <v>0.2</v>
-      </c>
-      <c r="AX15">
-        <v>0.25</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>87</v>
+        <v>0.25</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
       </c>
       <c r="AZ15">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0.08</v>
+      </c>
+      <c r="BC15">
+        <v>0.5</v>
+      </c>
+      <c r="BD15">
         <v>0.3</v>
       </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0.08</v>
-      </c>
-      <c r="BD15">
-        <v>0.5</v>
-      </c>
       <c r="BE15">
+        <v>0.25</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI15">
+        <v>0.11</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM15">
         <v>0.3</v>
       </c>
-      <c r="BF15">
-        <v>0.25</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ15">
-        <v>0.11</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN15">
-        <v>0.3</v>
+      <c r="BN15" t="s">
+        <v>86</v>
       </c>
       <c r="BO15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BP15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BS15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BV15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BW15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY15">
-        <v>1</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BX15">
+        <v>1</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ15">
+        <v>1</v>
       </c>
       <c r="CA15">
         <v>1</v>
       </c>
-      <c r="CB15">
-        <v>1</v>
+      <c r="CB15" t="s">
+        <v>86</v>
       </c>
       <c r="CC15" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>87</v>
-      </c>
-      <c r="CE15">
-        <v>1</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="CD15">
+        <v>1</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF15">
+        <v>1</v>
       </c>
       <c r="CG15">
-        <v>1</v>
-      </c>
-      <c r="CH15">
         <v>0.92</v>
       </c>
+      <c r="CH15" t="s">
+        <v>86</v>
+      </c>
       <c r="CI15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM15" t="s">
         <v>87</v>
       </c>
-      <c r="CN15" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="16" spans="1:92">
+    <row r="16" spans="1:91">
+      <c r="D16">
+        <v>218586</v>
+      </c>
       <c r="E16">
-        <v>218586</v>
+        <v>90.27</v>
       </c>
       <c r="F16">
-        <v>90.27</v>
+        <v>3.48</v>
       </c>
       <c r="G16">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="H16">
-        <v>3.4</v>
-      </c>
-      <c r="I16">
         <v>38</v>
       </c>
-      <c r="J16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16">
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16">
         <v>26</v>
       </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AI16">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
         <v>0</v>
       </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM16">
+      <c r="AK16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL16">
         <v>0.5</v>
       </c>
+      <c r="AM16" t="s">
+        <v>86</v>
+      </c>
       <c r="AN16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP16">
+        <v>86</v>
+      </c>
+      <c r="AO16">
         <v>0.5</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>87</v>
+      <c r="AP16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ16">
+        <v>0.25</v>
       </c>
       <c r="AR16">
         <v>0.25</v>
       </c>
       <c r="AS16">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>0.8</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>0.25</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0.3</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>0.71</v>
+      </c>
+      <c r="BC16">
+        <v>0.5</v>
+      </c>
+      <c r="BD16">
+        <v>0.3</v>
+      </c>
+      <c r="BE16">
         <v>0.02</v>
       </c>
-      <c r="AU16">
-        <v>1</v>
-      </c>
-      <c r="AV16">
+      <c r="BF16">
+        <v>0.25</v>
+      </c>
+      <c r="BG16">
+        <v>0.25</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM16">
+        <v>0.3</v>
+      </c>
+      <c r="BN16">
+        <v>0.25</v>
+      </c>
+      <c r="BO16">
+        <v>0.25</v>
+      </c>
+      <c r="BP16">
+        <v>0.25</v>
+      </c>
+      <c r="BQ16">
+        <v>0.25</v>
+      </c>
+      <c r="BR16">
+        <v>0.25</v>
+      </c>
+      <c r="BS16">
+        <v>0.25</v>
+      </c>
+      <c r="BT16">
+        <v>0.25</v>
+      </c>
+      <c r="BU16">
+        <v>0.25</v>
+      </c>
+      <c r="BV16">
+        <v>0.25</v>
+      </c>
+      <c r="BW16">
+        <v>0.25</v>
+      </c>
+      <c r="BX16">
+        <v>1</v>
+      </c>
+      <c r="BY16">
         <v>0.8</v>
       </c>
-      <c r="AW16">
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <v>0.25</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0.3</v>
-      </c>
-      <c r="BB16">
-        <v>1</v>
-      </c>
-      <c r="BC16">
-        <v>0.71</v>
-      </c>
-      <c r="BD16">
-        <v>0.5</v>
-      </c>
-      <c r="BE16">
-        <v>0.3</v>
-      </c>
-      <c r="BF16">
-        <v>0.02</v>
-      </c>
-      <c r="BG16">
-        <v>0.25</v>
-      </c>
-      <c r="BH16">
-        <v>0.25</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN16">
-        <v>0.3</v>
-      </c>
-      <c r="BO16">
-        <v>0.25</v>
-      </c>
-      <c r="BP16">
-        <v>0.25</v>
-      </c>
-      <c r="BQ16">
-        <v>0.25</v>
-      </c>
-      <c r="BR16">
-        <v>0.25</v>
-      </c>
-      <c r="BS16">
-        <v>0.25</v>
-      </c>
-      <c r="BT16">
-        <v>0.25</v>
-      </c>
-      <c r="BU16">
-        <v>0.25</v>
-      </c>
-      <c r="BV16">
-        <v>0.25</v>
-      </c>
-      <c r="BW16">
-        <v>0.25</v>
-      </c>
-      <c r="BX16">
-        <v>0.25</v>
-      </c>
-      <c r="BY16">
-        <v>1</v>
-      </c>
       <c r="BZ16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="CA16">
         <v>1</v>
@@ -4668,733 +4665,733 @@
         <v>1</v>
       </c>
       <c r="CE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG16">
-        <v>1</v>
-      </c>
-      <c r="CH16">
         <v>0.56000000000000005</v>
       </c>
+      <c r="CH16" t="s">
+        <v>86</v>
+      </c>
       <c r="CI16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM16" t="s">
         <v>87</v>
       </c>
-      <c r="CN16" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="17" spans="5:92">
-      <c r="E17">
+    <row r="17" spans="4:91">
+      <c r="D17">
         <v>218079</v>
       </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y17" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>86</v>
       </c>
       <c r="AH17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BD17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BE17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BI17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BJ17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BO17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BP17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BS17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BV17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BW17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BX17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BZ17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CA17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CB17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CC17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CD17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CE17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CF17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CG17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CH17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CI17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM17" t="s">
         <v>87</v>
       </c>
-      <c r="CN17" t="s">
+    </row>
+    <row r="18" spans="4:91">
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="5:92">
       <c r="E18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>86</v>
       </c>
       <c r="AH18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BD18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BE18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BI18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BJ18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BO18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BP18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BS18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BV18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BW18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BX18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BZ18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CA18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CB18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CC18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CD18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CE18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CF18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CG18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CH18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CI18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM18" t="s">
         <v>87</v>
       </c>
-      <c r="CN18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="19" spans="5:92">
+    <row r="19" spans="4:91">
+      <c r="D19">
+        <v>213451</v>
+      </c>
       <c r="E19">
-        <v>213451</v>
+        <v>170.51</v>
       </c>
       <c r="F19">
-        <v>170.51</v>
-      </c>
-      <c r="G19">
         <v>5</v>
       </c>
-      <c r="H19" t="s">
-        <v>87</v>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19">
+        <v>56</v>
       </c>
       <c r="I19">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J19">
-        <v>31</v>
-      </c>
-      <c r="K19">
         <v>60</v>
       </c>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>86</v>
       </c>
       <c r="AH19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AI19">
+        <v>0.5</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO19">
         <v>0.5</v>
       </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>87</v>
-      </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>0.25</v>
       </c>
       <c r="AS19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0.24</v>
+      </c>
+      <c r="AX19">
+        <v>0.94</v>
+      </c>
+      <c r="AY19">
+        <v>0.7</v>
+      </c>
+      <c r="AZ19">
+        <v>0.3</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>0.3</v>
+      </c>
+      <c r="BE19">
+        <v>0.25</v>
+      </c>
+      <c r="BF19">
+        <v>0.25</v>
+      </c>
+      <c r="BG19">
+        <v>0.25</v>
+      </c>
+      <c r="BH19">
+        <v>0.13</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM19">
+        <v>0.3</v>
+      </c>
+      <c r="BN19">
+        <v>0.25</v>
+      </c>
+      <c r="BO19">
+        <v>0.25</v>
+      </c>
+      <c r="BP19">
+        <v>0.25</v>
+      </c>
+      <c r="BQ19">
+        <v>0.25</v>
+      </c>
+      <c r="BR19">
+        <v>0.25</v>
+      </c>
+      <c r="BS19">
+        <v>0.25</v>
+      </c>
+      <c r="BT19">
+        <v>0.25</v>
+      </c>
+      <c r="BU19">
+        <v>0.25</v>
+      </c>
+      <c r="BV19">
+        <v>0.25</v>
+      </c>
+      <c r="BW19">
+        <v>0.25</v>
+      </c>
+      <c r="BX19">
         <v>0.6</v>
       </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0.24</v>
-      </c>
-      <c r="AY19">
-        <v>0.94</v>
-      </c>
-      <c r="AZ19">
-        <v>0.7</v>
-      </c>
-      <c r="BA19">
-        <v>0.3</v>
-      </c>
-      <c r="BB19">
-        <v>1</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>1</v>
-      </c>
-      <c r="BE19">
-        <v>0.3</v>
-      </c>
-      <c r="BF19">
-        <v>0.25</v>
-      </c>
-      <c r="BG19">
-        <v>0.25</v>
-      </c>
-      <c r="BH19">
-        <v>0.25</v>
-      </c>
-      <c r="BI19">
-        <v>0.13</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN19">
-        <v>0.3</v>
-      </c>
-      <c r="BO19">
-        <v>0.25</v>
-      </c>
-      <c r="BP19">
-        <v>0.25</v>
-      </c>
-      <c r="BQ19">
-        <v>0.25</v>
-      </c>
-      <c r="BR19">
-        <v>0.25</v>
-      </c>
-      <c r="BS19">
-        <v>0.25</v>
-      </c>
-      <c r="BT19">
-        <v>0.25</v>
-      </c>
-      <c r="BU19">
-        <v>0.25</v>
-      </c>
-      <c r="BV19">
-        <v>0.25</v>
-      </c>
-      <c r="BW19">
-        <v>0.25</v>
-      </c>
-      <c r="BX19">
-        <v>0.25</v>
-      </c>
       <c r="BY19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BZ19">
         <v>1</v>
@@ -5412,207 +5409,207 @@
         <v>1</v>
       </c>
       <c r="CE19">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="CF19">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="CG19">
-        <v>0.62</v>
-      </c>
-      <c r="CH19">
         <v>0.63</v>
       </c>
+      <c r="CH19" t="s">
+        <v>86</v>
+      </c>
       <c r="CI19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM19" t="s">
         <v>87</v>
       </c>
-      <c r="CN19" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="20" spans="5:92">
+    <row r="20" spans="4:91">
+      <c r="D20">
+        <v>213425</v>
+      </c>
       <c r="E20">
-        <v>213425</v>
+        <v>92.71</v>
       </c>
       <c r="F20">
-        <v>92.71</v>
-      </c>
-      <c r="G20">
         <v>3.63</v>
       </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20">
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20">
         <v>56</v>
       </c>
-      <c r="J20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20">
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20">
         <v>21</v>
       </c>
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>86</v>
       </c>
       <c r="AH20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AR20">
+        <v>0.25</v>
       </c>
       <c r="AS20">
-        <v>0.25</v>
-      </c>
-      <c r="AT20">
         <v>0.09</v>
       </c>
-      <c r="AU20" t="s">
-        <v>87</v>
+      <c r="AT20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
       </c>
       <c r="AV20">
         <v>0</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AX20">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="AY20">
         <v>1</v>
       </c>
       <c r="AZ20">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>0.08</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE20">
+        <v>0.04</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG20">
+        <v>0.2</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0.19</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM20">
         <v>0.3</v>
       </c>
-      <c r="BB20">
-        <v>1</v>
-      </c>
-      <c r="BC20">
-        <v>0.08</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>87</v>
-      </c>
-      <c r="BF20">
-        <v>0.04</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH20">
-        <v>0.2</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0.19</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>87</v>
-      </c>
       <c r="BN20">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="BO20">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="BP20">
         <v>0.25</v>
@@ -5630,165 +5627,165 @@
         <v>0.25</v>
       </c>
       <c r="BU20">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BV20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BW20">
         <v>0.25</v>
       </c>
       <c r="BX20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BY20">
         <v>1</v>
       </c>
       <c r="BZ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="CB20">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE20">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CF20">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
       <c r="CG20">
-        <v>0.91</v>
-      </c>
-      <c r="CH20">
         <v>0.45</v>
       </c>
+      <c r="CH20" t="s">
+        <v>86</v>
+      </c>
       <c r="CI20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM20" t="s">
         <v>87</v>
       </c>
-      <c r="CN20" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="21" spans="5:92">
+    <row r="21" spans="4:91">
+      <c r="D21">
+        <v>213468</v>
+      </c>
       <c r="E21">
-        <v>213468</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="F21">
-        <v>75.849999999999994</v>
+        <v>4.25</v>
       </c>
       <c r="G21">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="H21">
-        <v>4.2</v>
-      </c>
-      <c r="I21">
         <v>14</v>
       </c>
-      <c r="J21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21">
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21">
         <v>35</v>
       </c>
+      <c r="K21" t="s">
+        <v>86</v>
+      </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" t="s">
-        <v>87</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y21" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG21">
+        <v>0.33</v>
       </c>
       <c r="AH21">
         <v>0.33</v>
       </c>
       <c r="AI21">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AJ21">
         <v>0.5</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO21">
         <v>0.5</v>
       </c>
-      <c r="AL21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP21">
-        <v>0.5</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>87</v>
+      <c r="AP21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ21">
+        <v>0.25</v>
       </c>
       <c r="AR21">
         <v>0.25</v>
@@ -5797,70 +5794,70 @@
         <v>0.25</v>
       </c>
       <c r="AT21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU21">
         <v>0</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AW21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AX21">
-        <v>0.25</v>
+        <v>0.81</v>
       </c>
       <c r="AY21">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="AZ21">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
         <v>0.3</v>
       </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>1</v>
-      </c>
       <c r="BE21">
+        <v>0.25</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG21">
+        <v>0.25</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI21">
+        <v>0.68</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM21">
         <v>0.3</v>
       </c>
-      <c r="BF21">
-        <v>0.25</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH21">
-        <v>0.25</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ21">
-        <v>0.68</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>87</v>
-      </c>
       <c r="BN21">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="BO21">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="BP21">
         <v>0.25</v>
@@ -5880,14 +5877,14 @@
       <c r="BU21">
         <v>0.25</v>
       </c>
-      <c r="BV21">
-        <v>0.25</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>87</v>
+      <c r="BV21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW21">
+        <v>0.25</v>
       </c>
       <c r="BX21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BY21">
         <v>1</v>
@@ -5898,14 +5895,14 @@
       <c r="CA21">
         <v>1</v>
       </c>
-      <c r="CB21">
-        <v>1</v>
+      <c r="CB21" t="s">
+        <v>86</v>
       </c>
       <c r="CC21" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="CD21">
+        <v>1</v>
       </c>
       <c r="CE21">
         <v>1</v>
@@ -5914,449 +5911,449 @@
         <v>1</v>
       </c>
       <c r="CG21">
-        <v>1</v>
-      </c>
-      <c r="CH21">
         <v>0.92</v>
       </c>
+      <c r="CH21" t="s">
+        <v>86</v>
+      </c>
       <c r="CI21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM21" t="s">
         <v>87</v>
       </c>
-      <c r="CN21" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="22" spans="5:92">
+    <row r="22" spans="4:91">
+      <c r="D22">
+        <v>218081</v>
+      </c>
       <c r="E22">
-        <v>218081</v>
+        <v>57.23</v>
       </c>
       <c r="F22">
-        <v>57.23</v>
+        <v>2.44</v>
       </c>
       <c r="G22">
-        <v>2.44</v>
-      </c>
-      <c r="H22">
         <v>1.8</v>
       </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
       <c r="I22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
       </c>
       <c r="K22">
-        <v>22</v>
-      </c>
-      <c r="L22">
         <v>20</v>
       </c>
+      <c r="L22" t="s">
+        <v>86</v>
+      </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y22" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
         <v>0.5</v>
       </c>
+      <c r="AJ22" t="s">
+        <v>86</v>
+      </c>
       <c r="AK22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM22">
+        <v>86</v>
+      </c>
+      <c r="AL22">
         <v>0.5</v>
       </c>
+      <c r="AM22" t="s">
+        <v>86</v>
+      </c>
       <c r="AN22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP22">
+        <v>86</v>
+      </c>
+      <c r="AO22">
         <v>0.5</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>87</v>
+      <c r="AP22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ22">
+        <v>0.25</v>
       </c>
       <c r="AR22">
         <v>0.25</v>
       </c>
       <c r="AS22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AV22">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AW22">
+        <v>0.17</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>0.31</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0.3</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0.25</v>
+      </c>
+      <c r="BI22">
+        <v>0.19</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM22">
+        <v>0.18</v>
+      </c>
+      <c r="BN22">
+        <v>0.25</v>
+      </c>
+      <c r="BO22">
+        <v>0.25</v>
+      </c>
+      <c r="BP22">
+        <v>0.25</v>
+      </c>
+      <c r="BQ22">
+        <v>0.15</v>
+      </c>
+      <c r="BR22">
+        <v>0.25</v>
+      </c>
+      <c r="BS22">
+        <v>0.15</v>
+      </c>
+      <c r="BT22">
+        <v>0.25</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0.25</v>
+      </c>
+      <c r="BX22">
+        <v>1</v>
+      </c>
+      <c r="BY22">
         <v>0.2</v>
       </c>
-      <c r="AX22">
-        <v>0.17</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>1</v>
-      </c>
-      <c r="BC22">
-        <v>0.31</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>0.3</v>
-      </c>
-      <c r="BF22">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH22">
-        <v>0</v>
-      </c>
-      <c r="BI22">
-        <v>0.25</v>
-      </c>
-      <c r="BJ22">
-        <v>0.19</v>
-      </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN22">
-        <v>0.18</v>
-      </c>
-      <c r="BO22">
-        <v>0.25</v>
-      </c>
-      <c r="BP22">
-        <v>0.25</v>
-      </c>
-      <c r="BQ22">
-        <v>0.25</v>
-      </c>
-      <c r="BR22">
-        <v>0.15</v>
-      </c>
-      <c r="BS22">
-        <v>0.25</v>
-      </c>
-      <c r="BT22">
-        <v>0.15</v>
-      </c>
-      <c r="BU22">
-        <v>0.25</v>
-      </c>
-      <c r="BV22">
-        <v>0</v>
-      </c>
-      <c r="BW22">
-        <v>0</v>
-      </c>
-      <c r="BX22">
-        <v>0.25</v>
-      </c>
-      <c r="BY22">
-        <v>1</v>
-      </c>
       <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0.8</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
+      </c>
+      <c r="CE22">
         <v>0.2</v>
       </c>
-      <c r="CA22">
-        <v>0</v>
-      </c>
-      <c r="CB22">
-        <v>0.8</v>
-      </c>
-      <c r="CC22">
-        <v>0</v>
-      </c>
-      <c r="CD22" t="s">
-        <v>87</v>
-      </c>
-      <c r="CE22">
-        <v>0</v>
-      </c>
       <c r="CF22">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="CG22">
-        <v>0.43</v>
-      </c>
-      <c r="CH22">
         <v>0.56000000000000005</v>
       </c>
+      <c r="CH22" t="s">
+        <v>86</v>
+      </c>
       <c r="CI22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM22" t="s">
         <v>87</v>
       </c>
-      <c r="CN22" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="23" spans="5:92">
+    <row r="23" spans="4:91">
+      <c r="D23">
+        <v>213443</v>
+      </c>
       <c r="E23">
-        <v>213443</v>
+        <v>87.96</v>
       </c>
       <c r="F23">
-        <v>87.96</v>
+        <v>1.66</v>
       </c>
       <c r="G23">
-        <v>1.66</v>
+        <v>0.6</v>
       </c>
       <c r="H23">
-        <v>0.6</v>
-      </c>
-      <c r="I23">
         <v>48</v>
       </c>
-      <c r="J23" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23">
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23">
         <v>29</v>
       </c>
+      <c r="K23" t="s">
+        <v>86</v>
+      </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
-      </c>
-      <c r="N23" t="s">
-        <v>87</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>86</v>
       </c>
       <c r="AH23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>86</v>
       </c>
       <c r="AL23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP23">
+        <v>86</v>
+      </c>
+      <c r="AO23">
         <v>0.33</v>
       </c>
+      <c r="AP23" t="s">
+        <v>86</v>
+      </c>
       <c r="AQ23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
       </c>
       <c r="AU23">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AV23">
-        <v>0.3</v>
-      </c>
-      <c r="AW23">
         <v>0.2</v>
       </c>
+      <c r="AW23" t="s">
+        <v>86</v>
+      </c>
       <c r="AX23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD23">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>86</v>
       </c>
       <c r="BE23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH23">
-        <v>0.25</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ23">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="BG23">
+        <v>0.25</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>86</v>
       </c>
       <c r="BK23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BO23">
+        <v>0.25</v>
       </c>
       <c r="BP23">
         <v>0.25</v>
@@ -6379,728 +6376,728 @@
       <c r="BV23">
         <v>0.25</v>
       </c>
-      <c r="BW23">
-        <v>0.25</v>
+      <c r="BW23" t="s">
+        <v>86</v>
       </c>
       <c r="BX23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BY23">
+        <v>0.2</v>
       </c>
       <c r="BZ23">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CA23">
         <v>1</v>
       </c>
-      <c r="CB23">
-        <v>1</v>
+      <c r="CB23" t="s">
+        <v>86</v>
       </c>
       <c r="CC23" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD23" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="CD23">
+        <v>0.5</v>
       </c>
       <c r="CE23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="CF23">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="CG23">
-        <v>0.79</v>
-      </c>
-      <c r="CH23">
         <v>0.73</v>
       </c>
+      <c r="CH23" t="s">
+        <v>86</v>
+      </c>
       <c r="CI23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM23" t="s">
         <v>87</v>
       </c>
-      <c r="CN23" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="24" spans="5:92">
+    <row r="24" spans="4:91">
+      <c r="D24">
+        <v>213420</v>
+      </c>
       <c r="E24">
-        <v>213420</v>
+        <v>115.22</v>
       </c>
       <c r="F24">
-        <v>115.22</v>
+        <v>3.5</v>
       </c>
       <c r="G24">
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H24">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I24">
         <v>45</v>
       </c>
-      <c r="J24" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24">
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24">
         <v>46</v>
       </c>
+      <c r="K24" t="s">
+        <v>86</v>
+      </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y24" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH24">
+        <v>0.17</v>
       </c>
       <c r="AI24">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AJ24">
         <v>0.5</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL24">
         <v>0.5</v>
       </c>
-      <c r="AL24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM24">
+      <c r="AM24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO24">
         <v>0.5</v>
       </c>
-      <c r="AN24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP24">
+      <c r="AP24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ24">
+        <v>0.18</v>
+      </c>
+      <c r="AR24">
+        <v>0.25</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>0.4</v>
+      </c>
+      <c r="AV24">
+        <v>0.2</v>
+      </c>
+      <c r="AW24">
+        <v>0.18</v>
+      </c>
+      <c r="AX24">
+        <v>0.38</v>
+      </c>
+      <c r="AY24">
+        <v>0.7</v>
+      </c>
+      <c r="AZ24">
+        <v>0.12</v>
+      </c>
+      <c r="BA24">
         <v>0.5</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR24">
-        <v>0.18</v>
-      </c>
-      <c r="AS24">
-        <v>0.25</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU24">
-        <v>1</v>
-      </c>
-      <c r="AV24">
+      <c r="BB24">
+        <v>0.79</v>
+      </c>
+      <c r="BC24">
         <v>0.4</v>
       </c>
-      <c r="AW24">
+      <c r="BD24">
+        <v>0.25</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0.23</v>
+      </c>
+      <c r="BG24">
+        <v>0.15</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM24">
+        <v>0.3</v>
+      </c>
+      <c r="BN24">
+        <v>0.23</v>
+      </c>
+      <c r="BO24">
+        <v>0.25</v>
+      </c>
+      <c r="BP24">
+        <v>0.25</v>
+      </c>
+      <c r="BQ24">
+        <v>0.25</v>
+      </c>
+      <c r="BR24">
+        <v>0.25</v>
+      </c>
+      <c r="BS24">
+        <v>0.25</v>
+      </c>
+      <c r="BT24">
+        <v>0.25</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0.25</v>
+      </c>
+      <c r="BW24">
+        <v>0.25</v>
+      </c>
+      <c r="BX24">
+        <v>1</v>
+      </c>
+      <c r="BY24">
+        <v>0.8</v>
+      </c>
+      <c r="BZ24">
+        <v>1</v>
+      </c>
+      <c r="CA24">
+        <v>1</v>
+      </c>
+      <c r="CB24">
+        <v>1</v>
+      </c>
+      <c r="CC24">
+        <v>1</v>
+      </c>
+      <c r="CD24">
+        <v>0.75</v>
+      </c>
+      <c r="CE24">
         <v>0.2</v>
       </c>
-      <c r="AX24">
-        <v>0.18</v>
-      </c>
-      <c r="AY24">
-        <v>0.38</v>
-      </c>
-      <c r="AZ24">
-        <v>0.7</v>
-      </c>
-      <c r="BA24">
-        <v>0.12</v>
-      </c>
-      <c r="BB24">
-        <v>0.5</v>
-      </c>
-      <c r="BC24">
-        <v>0.79</v>
-      </c>
-      <c r="BD24">
-        <v>0.4</v>
-      </c>
-      <c r="BE24">
-        <v>0.25</v>
-      </c>
-      <c r="BF24">
-        <v>0</v>
-      </c>
-      <c r="BG24">
-        <v>0.23</v>
-      </c>
-      <c r="BH24">
-        <v>0.15</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ24">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN24">
-        <v>0.3</v>
-      </c>
-      <c r="BO24">
-        <v>0.23</v>
-      </c>
-      <c r="BP24">
-        <v>0.25</v>
-      </c>
-      <c r="BQ24">
-        <v>0.25</v>
-      </c>
-      <c r="BR24">
-        <v>0.25</v>
-      </c>
-      <c r="BS24">
-        <v>0.25</v>
-      </c>
-      <c r="BT24">
-        <v>0.25</v>
-      </c>
-      <c r="BU24">
-        <v>0.25</v>
-      </c>
-      <c r="BV24">
-        <v>0</v>
-      </c>
-      <c r="BW24">
-        <v>0.25</v>
-      </c>
-      <c r="BX24">
-        <v>0.25</v>
-      </c>
-      <c r="BY24">
-        <v>1</v>
-      </c>
-      <c r="BZ24">
-        <v>0.8</v>
-      </c>
-      <c r="CA24">
-        <v>1</v>
-      </c>
-      <c r="CB24">
-        <v>1</v>
-      </c>
-      <c r="CC24">
-        <v>1</v>
-      </c>
-      <c r="CD24">
-        <v>1</v>
-      </c>
-      <c r="CE24">
-        <v>0.75</v>
-      </c>
       <c r="CF24">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="CG24">
-        <v>0.43</v>
-      </c>
-      <c r="CH24">
         <v>0.92</v>
       </c>
+      <c r="CH24" t="s">
+        <v>86</v>
+      </c>
       <c r="CI24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM24" t="s">
         <v>87</v>
       </c>
-      <c r="CN24" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="25" spans="5:92">
-      <c r="E25">
+    <row r="25" spans="4:91">
+      <c r="D25">
         <v>214354</v>
       </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y25" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>86</v>
       </c>
       <c r="AH25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BD25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BE25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BI25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BJ25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BO25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BP25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BS25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BV25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BW25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BX25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BZ25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CA25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CB25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CC25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CD25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CE25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CF25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CG25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CH25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CI25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM25" t="s">
         <v>87</v>
       </c>
-      <c r="CN25" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="26" spans="5:92">
+    <row r="26" spans="4:91">
+      <c r="D26">
+        <v>216793</v>
+      </c>
       <c r="E26">
-        <v>216793</v>
+        <v>120.09</v>
       </c>
       <c r="F26">
-        <v>120.09</v>
-      </c>
-      <c r="G26">
         <v>1.65</v>
       </c>
-      <c r="H26" t="s">
-        <v>87</v>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J26">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L26">
-        <v>12</v>
-      </c>
-      <c r="M26">
         <v>47</v>
       </c>
-      <c r="N26" t="s">
-        <v>87</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
+      <c r="M26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH26">
+        <v>0.33</v>
       </c>
       <c r="AI26">
+        <v>0.5</v>
+      </c>
+      <c r="AJ26">
         <v>0.33</v>
       </c>
-      <c r="AJ26">
-        <v>0.5</v>
-      </c>
-      <c r="AK26">
-        <v>0.33</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
+      <c r="AK26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>86</v>
       </c>
       <c r="AN26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>86</v>
       </c>
       <c r="AQ26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
       </c>
       <c r="AU26">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AV26">
-        <v>0.2</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY26">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>86</v>
       </c>
       <c r="AZ26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BD26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BE26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF26" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH26">
-        <v>0.25</v>
+        <v>86</v>
+      </c>
+      <c r="BG26">
+        <v>0.25</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>86</v>
       </c>
       <c r="BI26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BJ26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BK26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN26" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BO26">
+        <v>0.25</v>
       </c>
       <c r="BP26">
         <v>0.25</v>
@@ -7123,232 +7120,232 @@
       <c r="BV26">
         <v>0.25</v>
       </c>
-      <c r="BW26">
-        <v>0.25</v>
+      <c r="BW26" t="s">
+        <v>86</v>
       </c>
       <c r="BX26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY26" t="s">
-        <v>87</v>
-      </c>
-      <c r="BZ26" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="BZ26">
+        <v>1</v>
       </c>
       <c r="CA26">
         <v>1</v>
       </c>
       <c r="CB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD26">
-        <v>1</v>
-      </c>
-      <c r="CE26">
-        <v>0</v>
-      </c>
-      <c r="CF26" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF26">
+        <v>0.91</v>
       </c>
       <c r="CG26">
-        <v>0.91</v>
-      </c>
-      <c r="CH26">
         <v>0.92</v>
       </c>
+      <c r="CH26" t="s">
+        <v>86</v>
+      </c>
       <c r="CI26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM26" t="s">
         <v>87</v>
       </c>
-      <c r="CN26" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="27" spans="5:92">
+    <row r="27" spans="4:91">
+      <c r="D27">
+        <v>213421</v>
+      </c>
       <c r="E27">
-        <v>213421</v>
+        <v>141.13999999999999</v>
       </c>
       <c r="F27">
-        <v>141.13999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="G27">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H27">
-        <v>1.4</v>
-      </c>
-      <c r="I27">
         <v>54</v>
       </c>
-      <c r="J27" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27">
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27">
         <v>60</v>
       </c>
+      <c r="K27" t="s">
+        <v>86</v>
+      </c>
       <c r="L27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH27">
+        <v>0.33</v>
       </c>
       <c r="AI27">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AJ27">
         <v>0.5</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL27">
         <v>0.5</v>
       </c>
-      <c r="AL27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM27">
+      <c r="AM27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO27">
         <v>0.5</v>
       </c>
-      <c r="AN27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP27">
-        <v>0.5</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>87</v>
+      <c r="AP27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ27">
+        <v>0.25</v>
       </c>
       <c r="AR27">
         <v>0.25</v>
       </c>
       <c r="AS27">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="AT27">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="AU27">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AV27">
+        <v>0.2</v>
+      </c>
+      <c r="AW27">
+        <v>0.25</v>
+      </c>
+      <c r="AX27">
+        <v>0.75</v>
+      </c>
+      <c r="AY27">
+        <v>0.7</v>
+      </c>
+      <c r="AZ27">
+        <v>0.3</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BC27">
         <v>0.6</v>
       </c>
-      <c r="AW27">
-        <v>0.2</v>
-      </c>
-      <c r="AX27">
-        <v>0.25</v>
-      </c>
-      <c r="AY27">
-        <v>0.75</v>
-      </c>
-      <c r="AZ27">
-        <v>0.7</v>
-      </c>
-      <c r="BA27">
+      <c r="BD27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BE27">
+        <v>0.24</v>
+      </c>
+      <c r="BF27">
+        <v>0.25</v>
+      </c>
+      <c r="BG27">
+        <v>0.25</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM27">
         <v>0.3</v>
       </c>
-      <c r="BB27">
-        <v>1</v>
-      </c>
-      <c r="BC27">
-        <v>1</v>
-      </c>
-      <c r="BD27">
-        <v>0.6</v>
-      </c>
-      <c r="BE27">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="BF27">
-        <v>0.24</v>
-      </c>
-      <c r="BG27">
-        <v>0.25</v>
-      </c>
-      <c r="BH27">
-        <v>0.25</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>87</v>
-      </c>
       <c r="BN27">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="BO27">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="BP27">
         <v>0.25</v>
@@ -7375,156 +7372,156 @@
         <v>0.25</v>
       </c>
       <c r="BX27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BY27">
         <v>1</v>
       </c>
       <c r="BZ27">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="CA27">
         <v>0.4</v>
       </c>
       <c r="CB27">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="CC27">
         <v>1</v>
       </c>
       <c r="CD27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="CE27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CF27">
         <v>1</v>
       </c>
       <c r="CG27">
-        <v>1</v>
-      </c>
-      <c r="CH27">
         <v>0.82</v>
       </c>
+      <c r="CH27" t="s">
+        <v>86</v>
+      </c>
       <c r="CI27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM27" t="s">
         <v>87</v>
       </c>
-      <c r="CN27" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="28" spans="5:92">
+    <row r="28" spans="4:91">
+      <c r="D28">
+        <v>213406</v>
+      </c>
       <c r="E28">
-        <v>213406</v>
+        <v>138.62</v>
       </c>
       <c r="F28">
-        <v>138.62</v>
-      </c>
-      <c r="G28">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28">
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28">
         <v>50</v>
       </c>
-      <c r="J28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28">
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28">
         <v>60</v>
       </c>
+      <c r="K28" t="s">
+        <v>86</v>
+      </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG28">
+        <v>0.5</v>
       </c>
       <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
         <v>0.5</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
       </c>
       <c r="AJ28">
         <v>0.5</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL28">
         <v>0.5</v>
       </c>
-      <c r="AL28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM28">
+      <c r="AM28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AN28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP28">
-        <v>0.5</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>87</v>
+      <c r="AP28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ28">
+        <v>0.25</v>
       </c>
       <c r="AR28">
         <v>0.25</v>
@@ -7533,67 +7530,67 @@
         <v>0.25</v>
       </c>
       <c r="AT28">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AU28">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AV28">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AW28">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AX28">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="AY28">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="AZ28">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BA28">
+        <v>1</v>
+      </c>
+      <c r="BB28">
+        <v>1</v>
+      </c>
+      <c r="BC28">
+        <v>1</v>
+      </c>
+      <c r="BD28">
         <v>0.3</v>
       </c>
-      <c r="BB28">
-        <v>1</v>
-      </c>
-      <c r="BC28">
-        <v>1</v>
-      </c>
-      <c r="BD28">
-        <v>1</v>
-      </c>
       <c r="BE28">
+        <v>0.24</v>
+      </c>
+      <c r="BF28">
+        <v>0.25</v>
+      </c>
+      <c r="BG28">
+        <v>0.25</v>
+      </c>
+      <c r="BH28">
+        <v>0.25</v>
+      </c>
+      <c r="BI28">
+        <v>0.09</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM28">
         <v>0.3</v>
       </c>
-      <c r="BF28">
-        <v>0.24</v>
-      </c>
-      <c r="BG28">
-        <v>0.25</v>
-      </c>
-      <c r="BH28">
-        <v>0.25</v>
-      </c>
-      <c r="BI28">
-        <v>0.25</v>
-      </c>
-      <c r="BJ28">
-        <v>0.09</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>87</v>
-      </c>
       <c r="BN28">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="BO28">
         <v>0.25</v>
@@ -7623,7 +7620,7 @@
         <v>0.25</v>
       </c>
       <c r="BX28">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BY28">
         <v>1</v>
@@ -7650,28 +7647,25 @@
         <v>1</v>
       </c>
       <c r="CG28">
-        <v>1</v>
-      </c>
-      <c r="CH28">
         <v>0.92</v>
       </c>
+      <c r="CH28" t="s">
+        <v>86</v>
+      </c>
       <c r="CI28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CK28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CL28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CM28" t="s">
         <v>87</v>
-      </c>
-      <c r="CN28" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
